--- a/QA/Test Cases.xlsx
+++ b/QA/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>#Case</t>
   </si>
@@ -38,14 +38,28 @@
   </si>
   <si>
     <t>O seguinte menu e printado na tela:
-          "1 - Baixar Arquivo Coronavirus COVID19 da API\n"
-          "2 - Cria estrutura de tabelas no DB Selecionado\n"
-          "3 - Limpar conteúdo das Tabelas\n"
-          "4 - Carregar Arquivo nas Tabelas\n"
-          "5 - Carregar da API nas Tabelas\n"
-          "6 - Selecionar Banco de Dados\n"
-          "7 - Exibir consulta na Tela\n"
-          "8 - Sair do Programa</t>
+          "Digite a opção que deseja executar:\n"
+          "===== Consulta =====\n"
+          "1 - Exibi TODAS as consultas na Tela\n"
+          "2 - Exibi Panorama diário de quantidade de casos confirmados de COVID-19 dos 10 países do mundo com maiores números\n"
+          "3 - Panorama diário de quantidade de mortes de COVID-19 dos 10 países do mundo com números\n"
+          "4 - Total de mortes por COVID-19 dos 10 países do mundo com maiores números\n"
+          "5 - Total de casos confirmados por COVID-19 dos 10 países do mundo com maiores números\n"
+          "===== Carga de Dados =====\n"
+          "6 - Carregando Dados da API no buffer CSV\n"
+          "7 - Carregar Todos os Dados da API nas Tabelas\n"
+          "8 - Carregar Todos os Dados do BUFFER nas Tabelas\n"
+          "9 - Carregar PAIS na Tabela\n"
+          "10 - Carregar Dados de PAISES na Tabela\n"
+          "11 - Carregar Sumario de PAISES na Tabela\n"
+          "===== Manutenção =====\n"
+          "12 - Cria estrutura de tabelas no DB Selecionado\n"
+          "13 - Limpar conteúdo das Tabelas\n"
+          "14 - Limpar conteúdo DADOS_PAISES\n"
+          "15 - Limpar conteúdo SUMARY_PAISES\n"
+          "16 - Limpar conteúdo LOG\n"
+          "===== FIM =====\n"
+          "17 - Sair do Programa\n"</t>
   </si>
   <si>
     <t>OK</t>
@@ -117,7 +131,7 @@
     <t>Validar opcao de truncar as tabelas</t>
   </si>
   <si>
-    <t>Inserir dados de teste nas 4 tabelas</t>
+    <t>Inserir dados de teste nas 3 tabelas</t>
   </si>
   <si>
     <t>Selecionar a opcao 3</t>
@@ -126,7 +140,7 @@
     <t>Fazer uma pesquisa SQL das 4 tabelas</t>
   </si>
   <si>
-    <t>A pesquisa nas 4 tabelas nao tem resultados</t>
+    <t>A pesquisa nas 3 tabelas nao tem resultados</t>
   </si>
   <si>
     <t>MENU-08</t>
@@ -319,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,7 +352,7 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -377,6 +391,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -386,7 +403,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -604,6 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -795,18 +818,18 @@
       <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16">
       <c r="B16" s="20"/>
-      <c r="D16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="26"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17">
@@ -814,7 +837,7 @@
       <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="22"/>
     </row>
     <row r="18">
@@ -823,7 +846,7 @@
       <c r="D18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -840,7 +863,7 @@
       <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20">
@@ -848,7 +871,7 @@
       <c r="D20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21">
@@ -856,7 +879,7 @@
       <c r="D21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="22"/>
     </row>
     <row r="22">
@@ -864,7 +887,7 @@
       <c r="D22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="22"/>
     </row>
     <row r="23">
@@ -876,7 +899,9 @@
       <c r="E23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="8" t="s">
@@ -888,7 +913,7 @@
       <c r="D24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25">
@@ -896,7 +921,7 @@
       <c r="D25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="22"/>
     </row>
     <row r="26">
@@ -908,7 +933,9 @@
       <c r="E26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="8" t="s">
@@ -920,7 +947,7 @@
       <c r="D27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28">
@@ -928,15 +955,15 @@
       <c r="D28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="22"/>
     </row>
     <row r="29">
       <c r="B29" s="20"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="22"/>
     </row>
     <row r="30">
@@ -948,7 +975,7 @@
       <c r="E30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31">
       <c r="B31" s="8" t="s">
@@ -960,7 +987,7 @@
       <c r="D31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32">
@@ -968,7 +995,7 @@
       <c r="D32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="22"/>
     </row>
     <row r="33">
@@ -976,7 +1003,7 @@
       <c r="D33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34">
@@ -984,7 +1011,7 @@
       <c r="D34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35">
@@ -996,7 +1023,7 @@
       <c r="E35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36">
       <c r="B36" s="8" t="s">
@@ -1008,7 +1035,7 @@
       <c r="D36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37">
@@ -1020,10 +1047,12 @@
       <c r="E37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1050,6 +1079,9 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="C19:C23"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>